--- a/Data/Learnable Network/rating_to_int.xlsx
+++ b/Data/Learnable Network/rating_to_int.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,16 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
